--- a/Version.xlsx
+++ b/Version.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Visual Studio 2013\Projects\oldigw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="10290"/>
   </bookViews>
@@ -16,17 +11,23 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>v3.2.0.0</t>
   </si>
   <si>
     <t>v3.2.2.0</t>
+  </si>
+  <si>
+    <t>v3.2.3.0</t>
+  </si>
+  <si>
+    <t>Добавлен РТ-Мобайл начат рефакторинг который закончится версией 3.3.</t>
   </si>
 </sst>
 </file>
@@ -127,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -162,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,59 +383,82 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>41030</v>
       </c>
       <c r="B1">
         <f ca="1">A2-A1</f>
-        <v>671</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>41701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>41418</v>
       </c>
       <c r="B6">
         <f ca="1">A7-A6</f>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f ca="1">TODAY()</f>
-        <v>41701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41701</v>
       </c>
       <c r="B10">
         <f ca="1">A11-A10+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f ca="1">TODAY()</f>
-        <v>41701</v>
+        <v>41831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41831</v>
+      </c>
+      <c r="B14">
+        <f ca="1">A15-A14+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f ca="1">TODAY()</f>
+        <v>41831</v>
       </c>
     </row>
   </sheetData>

--- a/Version.xlsx
+++ b/Version.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="10290"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>v3.2.0.0</t>
   </si>
@@ -29,12 +29,18 @@
   <si>
     <t>Добавлен РТ-Мобайл начат рефакторинг который закончится версией 3.3.</t>
   </si>
+  <si>
+    <t>Добавлена регистрация терминалов МТС. Изменён синтаксис запросов в ЕКТ.</t>
+  </si>
+  <si>
+    <t>v3.3.2.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +166,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -195,7 +200,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -371,74 +375,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>41030</v>
       </c>
       <c r="B1">
         <f ca="1">A2-A1</f>
-        <v>801</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>41831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>41418</v>
       </c>
       <c r="B6">
         <f ca="1">A7-A6</f>
-        <v>413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <f ca="1">TODAY()</f>
-        <v>41831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>41701</v>
       </c>
       <c r="B10">
         <f ca="1">A11-A10+1</f>
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <f ca="1">TODAY()</f>
-        <v>41831</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -446,19 +450,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>41831</v>
       </c>
       <c r="B14">
         <f ca="1">A15-A14+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <f ca="1">TODAY()</f>
-        <v>41831</v>
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>42796</v>
+      </c>
+      <c r="B18">
+        <f ca="1">A19-A18+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <f ca="1">TODAY()</f>
+        <v>42796</v>
       </c>
     </row>
   </sheetData>
@@ -467,24 +494,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
